--- a/results/Homeopathy_excluded/mod2.lrgen.eff.COMB.xlsx
+++ b/results/Homeopathy_excluded/mod2.lrgen.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0779165864228137</v>
+        <v>-0.0779158918577392</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0361818360686367</v>
+        <v>0.0361817469861402</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.148831682011874</v>
+        <v>-0.148830812848315</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00700149083375338</v>
+        <v>-0.00700097086716382</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.15347242950873</v>
+        <v>-2.15345853497858</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0312815686244457</v>
+        <v>0.0312826595179659</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0426714123869517</v>
+        <v>-0.0426723092059349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0384374902141722</v>
+        <v>0.0384373983905529</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.11800750886284</v>
+        <v>-0.118008225710836</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0326646840889366</v>
+        <v>0.0326636072989666</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.11015084879861</v>
+        <v>-1.11017683279061</v>
       </c>
       <c r="H3" t="n">
-        <v>0.266934028717867</v>
+        <v>0.26692283382784</v>
       </c>
     </row>
   </sheetData>
